--- a/tests/testthat/IUCN_results.xlsx
+++ b/tests/testthat/IUCN_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,256 +412,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Berlinia bruneelii</t>
+          <t>taxa</t>
         </is>
       </c>
       <c r="B2">
-        <v>2635042</v>
+        <v>8281322</v>
       </c>
       <c r="C2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VU B2a</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>LC or NT B1a+B2a</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Oncocalamus mannii</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>657704</v>
-      </c>
-      <c r="C3">
-        <v>176</v>
-      </c>
-      <c r="D3">
-        <v>47</v>
-      </c>
-      <c r="E3">
-        <v>29</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>LC or NT B1a+B2a</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Platycoryne guingangae</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>3422563</v>
-      </c>
-      <c r="C4">
-        <v>148</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>LC or NT B1a+B2a</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Psychotria minuta</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>760348</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VU B2a</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>LC or NT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>species_1</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EN B2a</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>species_2</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>4604</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>EN B1a+B2a</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>EN</t>
         </is>
       </c>
     </row>
